--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Lamc2</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lamc2</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H2">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I2">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J2">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>226.4719841214515</v>
+        <v>130.9570225767705</v>
       </c>
       <c r="R2">
-        <v>905.887936485806</v>
+        <v>523.8280903070821</v>
       </c>
       <c r="S2">
-        <v>0.04528862324617831</v>
+        <v>0.0385200254640744</v>
       </c>
       <c r="T2">
-        <v>0.02801941845932908</v>
+        <v>0.02372927117984684</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H3">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I3">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J3">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>163.429572767224</v>
+        <v>77.16486559576801</v>
       </c>
       <c r="R3">
-        <v>980.5774366033438</v>
+        <v>462.989193574608</v>
       </c>
       <c r="S3">
-        <v>0.03268174815110659</v>
+        <v>0.02269746615488578</v>
       </c>
       <c r="T3">
-        <v>0.03032958981057788</v>
+        <v>0.02097328557013801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H4">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I4">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J4">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>116.322988984431</v>
+        <v>50.427531603101</v>
       </c>
       <c r="R4">
-        <v>697.937933906586</v>
+        <v>302.565189618606</v>
       </c>
       <c r="S4">
-        <v>0.02326163230927532</v>
+        <v>0.01483288000307994</v>
       </c>
       <c r="T4">
-        <v>0.02158745496118505</v>
+        <v>0.01370612146788993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H5">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I5">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J5">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>192.5253843379535</v>
+        <v>111.7795532845365</v>
       </c>
       <c r="R5">
-        <v>770.1015373518139</v>
+        <v>447.118213138146</v>
       </c>
       <c r="S5">
-        <v>0.03850016870930645</v>
+        <v>0.03287911678321077</v>
       </c>
       <c r="T5">
-        <v>0.02381949947908509</v>
+        <v>0.02025433443781886</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H6">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I6">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J6">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>167.515102646572</v>
+        <v>38.887872423869</v>
       </c>
       <c r="R6">
-        <v>1005.090615879432</v>
+        <v>233.327234543214</v>
       </c>
       <c r="S6">
-        <v>0.03349874997225711</v>
+        <v>0.01143857585134822</v>
       </c>
       <c r="T6">
-        <v>0.03108779068757568</v>
+        <v>0.01056966078102818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H7">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I7">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J7">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>109.5853352565717</v>
+        <v>56.047386168334</v>
       </c>
       <c r="R7">
-        <v>657.5120115394301</v>
+        <v>336.284317010004</v>
       </c>
       <c r="S7">
-        <v>0.02191427333051268</v>
+        <v>0.01648591805096519</v>
       </c>
       <c r="T7">
-        <v>0.02033706759008946</v>
+        <v>0.01523358884244257</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I8">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J8">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>484.4849826978673</v>
+        <v>593.3427891919807</v>
       </c>
       <c r="R8">
-        <v>2906.909896187204</v>
+        <v>3560.056735151884</v>
       </c>
       <c r="S8">
-        <v>0.09688464529046625</v>
+        <v>0.1745273288815151</v>
       </c>
       <c r="T8">
-        <v>0.0899117004701501</v>
+        <v>0.1612696097197388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I9">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J9">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
         <v>349.6201706432107</v>
@@ -1013,10 +1013,10 @@
         <v>3146.581535788896</v>
       </c>
       <c r="S9">
-        <v>0.06991512106430629</v>
+        <v>0.1028381495771681</v>
       </c>
       <c r="T9">
-        <v>0.09732482486706442</v>
+        <v>0.1425392947301898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I10">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J10">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>248.846414818636</v>
+        <v>228.4781042262191</v>
       </c>
       <c r="R10">
-        <v>2239.617733367724</v>
+        <v>2056.302938035973</v>
       </c>
       <c r="S10">
-        <v>0.04976293898162532</v>
+        <v>0.06720511981415914</v>
       </c>
       <c r="T10">
-        <v>0.0692721295126195</v>
+        <v>0.0931499683721938</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I11">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J11">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>411.8640010229794</v>
+        <v>506.453114277242</v>
       </c>
       <c r="R11">
-        <v>2471.184006137876</v>
+        <v>3038.718685663452</v>
       </c>
       <c r="S11">
-        <v>0.08236230032316176</v>
+        <v>0.1489693830423083</v>
       </c>
       <c r="T11">
-        <v>0.07643455218819258</v>
+        <v>0.1376531367172482</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I12">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J12">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>358.3602268606987</v>
+        <v>176.1939775027631</v>
       </c>
       <c r="R12">
-        <v>3225.242041746288</v>
+        <v>1585.745797524868</v>
       </c>
       <c r="S12">
-        <v>0.07166290949261787</v>
+        <v>0.05182613628867645</v>
       </c>
       <c r="T12">
-        <v>0.0997578207640986</v>
+        <v>0.07183385684740808</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I13">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J13">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>234.4327465566245</v>
+        <v>253.9406576424276</v>
       </c>
       <c r="R13">
-        <v>2109.894719009621</v>
+        <v>2285.465918781848</v>
       </c>
       <c r="S13">
-        <v>0.04688057278500309</v>
+        <v>0.07469473882560024</v>
       </c>
       <c r="T13">
-        <v>0.06525975306216633</v>
+        <v>0.1035309895795771</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H14">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I14">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J14">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>336.3059171350365</v>
+        <v>232.6107608622957</v>
       </c>
       <c r="R14">
-        <v>1345.223668540146</v>
+        <v>930.4430434491829</v>
       </c>
       <c r="S14">
-        <v>0.06725260979045072</v>
+        <v>0.06842070975140459</v>
       </c>
       <c r="T14">
-        <v>0.04160822036822735</v>
+        <v>0.04214881886625157</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H15">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I15">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J15">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>242.689322344584</v>
+        <v>137.063119983092</v>
       </c>
       <c r="R15">
-        <v>1456.135934067504</v>
+        <v>822.3787198985519</v>
       </c>
       <c r="S15">
-        <v>0.04853167745304841</v>
+        <v>0.0403160881948053</v>
       </c>
       <c r="T15">
-        <v>0.04503877403266723</v>
+        <v>0.03725353416149971</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H16">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I16">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J16">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>172.737081127521</v>
+        <v>89.57126745706483</v>
       </c>
       <c r="R16">
-        <v>1036.422486765126</v>
+        <v>537.427604742389</v>
       </c>
       <c r="S16">
-        <v>0.03454301254160221</v>
+        <v>0.02634671616234177</v>
       </c>
       <c r="T16">
-        <v>0.03205689598868562</v>
+        <v>0.02434532551507819</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H17">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I17">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J17">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>285.8959628173185</v>
+        <v>198.5470227312247</v>
       </c>
       <c r="R17">
-        <v>1143.583851269274</v>
+        <v>794.1880909248989</v>
       </c>
       <c r="S17">
-        <v>0.05717190405632391</v>
+        <v>0.05840111680104403</v>
       </c>
       <c r="T17">
-        <v>0.03537143302332408</v>
+        <v>0.03597650627386943</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,14 +1520,14 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
         <v>2</v>
       </c>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H18">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I18">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J18">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>248.756244389652</v>
+        <v>69.07409327765683</v>
       </c>
       <c r="R18">
-        <v>1492.537466337912</v>
+        <v>414.444559665941</v>
       </c>
       <c r="S18">
-        <v>0.04974490719459414</v>
+        <v>0.0203176261922372</v>
       </c>
       <c r="T18">
-        <v>0.04616468566496251</v>
+        <v>0.01877422674977223</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H19">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I19">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J19">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>162.731813477855</v>
+        <v>99.55346329988765</v>
       </c>
       <c r="R19">
-        <v>976.3908808671301</v>
+        <v>597.3207797993259</v>
       </c>
       <c r="S19">
-        <v>0.03254221408160418</v>
+        <v>0.02928290416117551</v>
       </c>
       <c r="T19">
-        <v>0.03020009823402446</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H20">
-        <v>2.033836</v>
-      </c>
-      <c r="I20">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J20">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>164.5772705</v>
-      </c>
-      <c r="N20">
-        <v>329.154541</v>
-      </c>
-      <c r="O20">
-        <v>0.2320765473082729</v>
-      </c>
-      <c r="P20">
-        <v>0.1805598029509348</v>
-      </c>
-      <c r="Q20">
-        <v>111.5743925082127</v>
-      </c>
-      <c r="R20">
-        <v>669.446355049276</v>
-      </c>
-      <c r="S20">
-        <v>0.02231203407268174</v>
-      </c>
-      <c r="T20">
-        <v>0.0207062008474954</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H21">
-        <v>2.033836</v>
-      </c>
-      <c r="I21">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J21">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>118.764328</v>
-      </c>
-      <c r="N21">
-        <v>356.2929839999999</v>
-      </c>
-      <c r="O21">
-        <v>0.1674740084210306</v>
-      </c>
-      <c r="P21">
-        <v>0.1954467673099505</v>
-      </c>
-      <c r="Q21">
-        <v>80.51572193406932</v>
-      </c>
-      <c r="R21">
-        <v>724.6414974066239</v>
-      </c>
-      <c r="S21">
-        <v>0.01610109175407153</v>
-      </c>
-      <c r="T21">
-        <v>0.02241340515869555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H22">
-        <v>2.033836</v>
-      </c>
-      <c r="I22">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J22">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>84.53195699999999</v>
-      </c>
-      <c r="N22">
-        <v>253.595871</v>
-      </c>
-      <c r="O22">
-        <v>0.1192016653221344</v>
-      </c>
-      <c r="P22">
-        <v>0.1391116171686985</v>
-      </c>
-      <c r="Q22">
-        <v>57.30804576568399</v>
-      </c>
-      <c r="R22">
-        <v>515.772411891156</v>
-      </c>
-      <c r="S22">
-        <v>0.01146014816678143</v>
-      </c>
-      <c r="T22">
-        <v>0.01595301411631303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H23">
-        <v>2.033836</v>
-      </c>
-      <c r="I23">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J23">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>139.9082645</v>
-      </c>
-      <c r="N23">
-        <v>279.816529</v>
-      </c>
-      <c r="O23">
-        <v>0.1972898618770847</v>
-      </c>
-      <c r="P23">
-        <v>0.1534951247677137</v>
-      </c>
-      <c r="Q23">
-        <v>94.85015501254067</v>
-      </c>
-      <c r="R23">
-        <v>569.100930075244</v>
-      </c>
-      <c r="S23">
-        <v>0.01896761293397297</v>
-      </c>
-      <c r="T23">
-        <v>0.01760248311422513</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H24">
-        <v>2.033836</v>
-      </c>
-      <c r="I24">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J24">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>121.733284</v>
-      </c>
-      <c r="N24">
-        <v>365.199852</v>
-      </c>
-      <c r="O24">
-        <v>0.1716606440086599</v>
-      </c>
-      <c r="P24">
-        <v>0.2003326860218846</v>
-      </c>
-      <c r="Q24">
-        <v>82.52851179914131</v>
-      </c>
-      <c r="R24">
-        <v>742.7566061922719</v>
-      </c>
-      <c r="S24">
-        <v>0.01650359841389788</v>
-      </c>
-      <c r="T24">
-        <v>0.02297371156422112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H25">
-        <v>2.033836</v>
-      </c>
-      <c r="I25">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J25">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>79.63570166666668</v>
-      </c>
-      <c r="N25">
-        <v>238.907105</v>
-      </c>
-      <c r="O25">
-        <v>0.1122972730628175</v>
-      </c>
-      <c r="P25">
-        <v>0.1310540017808179</v>
-      </c>
-      <c r="Q25">
-        <v>53.98865231164223</v>
-      </c>
-      <c r="R25">
-        <v>485.89787080478</v>
-      </c>
-      <c r="S25">
-        <v>0.01079635409914387</v>
-      </c>
-      <c r="T25">
-        <v>0.01502898451588937</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.030868</v>
-      </c>
-      <c r="I26">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J26">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>164.5772705</v>
-      </c>
-      <c r="N26">
-        <v>329.154541</v>
-      </c>
-      <c r="O26">
-        <v>0.2320765473082729</v>
-      </c>
-      <c r="P26">
-        <v>0.1805598029509348</v>
-      </c>
-      <c r="Q26">
-        <v>1.693390395264667</v>
-      </c>
-      <c r="R26">
-        <v>10.160342371588</v>
-      </c>
-      <c r="S26">
-        <v>0.0003386349084958374</v>
-      </c>
-      <c r="T26">
-        <v>0.0003142628057328556</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.030868</v>
-      </c>
-      <c r="I27">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J27">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>118.764328</v>
-      </c>
-      <c r="N27">
-        <v>356.2929839999999</v>
-      </c>
-      <c r="O27">
-        <v>0.1674740084210306</v>
-      </c>
-      <c r="P27">
-        <v>0.1954467673099505</v>
-      </c>
-      <c r="Q27">
-        <v>1.222005758901333</v>
-      </c>
-      <c r="R27">
-        <v>10.998051830112</v>
-      </c>
-      <c r="S27">
-        <v>0.0002443699984977549</v>
-      </c>
-      <c r="T27">
-        <v>0.0003401734409453929</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.030868</v>
-      </c>
-      <c r="I28">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J28">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>84.53195699999999</v>
-      </c>
-      <c r="N28">
-        <v>253.595871</v>
-      </c>
-      <c r="O28">
-        <v>0.1192016653221344</v>
-      </c>
-      <c r="P28">
-        <v>0.1391116171686985</v>
-      </c>
-      <c r="Q28">
-        <v>0.869777482892</v>
-      </c>
-      <c r="R28">
-        <v>7.827997346028001</v>
-      </c>
-      <c r="S28">
-        <v>0.0001739333228501262</v>
-      </c>
-      <c r="T28">
-        <v>0.0002421225898953261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.030868</v>
-      </c>
-      <c r="I29">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J29">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>139.9082645</v>
-      </c>
-      <c r="N29">
-        <v>279.816529</v>
-      </c>
-      <c r="O29">
-        <v>0.1972898618770847</v>
-      </c>
-      <c r="P29">
-        <v>0.1534951247677137</v>
-      </c>
-      <c r="Q29">
-        <v>1.439562769528667</v>
-      </c>
-      <c r="R29">
-        <v>8.637376617172</v>
-      </c>
-      <c r="S29">
-        <v>0.0002878758543195606</v>
-      </c>
-      <c r="T29">
-        <v>0.0002671569628868312</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.030868</v>
-      </c>
-      <c r="I30">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J30">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>121.733284</v>
-      </c>
-      <c r="N30">
-        <v>365.199852</v>
-      </c>
-      <c r="O30">
-        <v>0.1716606440086599</v>
-      </c>
-      <c r="P30">
-        <v>0.2003326860218846</v>
-      </c>
-      <c r="Q30">
-        <v>1.252554336837333</v>
-      </c>
-      <c r="R30">
-        <v>11.272989031536</v>
-      </c>
-      <c r="S30">
-        <v>0.0002504789352928161</v>
-      </c>
-      <c r="T30">
-        <v>0.0003486773410266991</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.030868</v>
-      </c>
-      <c r="I31">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J31">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>79.63570166666668</v>
-      </c>
-      <c r="N31">
-        <v>238.907105</v>
-      </c>
-      <c r="O31">
-        <v>0.1122972730628175</v>
-      </c>
-      <c r="P31">
-        <v>0.1310540017808179</v>
-      </c>
-      <c r="Q31">
-        <v>0.8193982796822225</v>
-      </c>
-      <c r="R31">
-        <v>7.374584517140002</v>
-      </c>
-      <c r="S31">
-        <v>0.0001638587665536322</v>
-      </c>
-      <c r="T31">
-        <v>0.0002280983786482652</v>
+        <v>0.02705847018800883</v>
       </c>
     </row>
   </sheetData>
